--- a/notebooks/results/PLSDA_ST001047.xlsx
+++ b/notebooks/results/PLSDA_ST001047.xlsx
@@ -437,19 +437,19 @@
         <v>12.8042008738419</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06842607068475764</v>
+        <v>-0.06675086027372262</v>
       </c>
       <c r="H2" t="n">
-        <v>1.934882030768542</v>
+        <v>1.570454162178737</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.09221751 -0.04475556 -0.07336304]</t>
+          <t>[-0.09613692 -0.0455474  -0.06991865]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[1.16501077 2.57366374 1.98819554]</t>
+          <t>[1.03351663 2.14623498 1.57260649]</t>
         </is>
       </c>
     </row>
@@ -477,19 +477,19 @@
         <v>9.372663557352331</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.004672346392015133</v>
+        <v>-0.004815509956431573</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4245393101123416</v>
+        <v>0.8487292877406246</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.03002921  0.02104725 -0.00245283]</t>
+          <t>[-0.03995299  0.01714689 -0.00658952]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.1104905  0.59712865 0.36721208]</t>
+          <t>[0.43701822 1.08643342 0.8600212 ]</t>
         </is>
       </c>
     </row>
@@ -517,19 +517,19 @@
         <v>5.04915562556207</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04544949438479028</v>
+        <v>0.04523695386902182</v>
       </c>
       <c r="H4" t="n">
-        <v>1.357921935310967</v>
+        <v>1.180695196173784</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.0257762  0.06849543 0.05605336]</t>
+          <t>[0.0244121  0.06623571 0.05209143]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.81487482 2.25697364 1.63407069]</t>
+          <t>[0.74089531 1.61622034 1.32010282]</t>
         </is>
       </c>
     </row>
@@ -557,19 +557,19 @@
         <v>5.13234006385694</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05336036051358085</v>
+        <v>-0.05330589989918088</v>
       </c>
       <c r="H5" t="n">
-        <v>1.531687005513794</v>
+        <v>1.456856027453303</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.07239693 -0.03999039 -0.06078896]</t>
+          <t>[-0.07303575 -0.04008815 -0.05699528]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[1.18013919 1.89496088 1.64289929]</t>
+          <t>[1.11896841 1.77730995 1.48592784]</t>
         </is>
       </c>
     </row>
@@ -597,19 +597,19 @@
         <v>15.4761649136304</v>
       </c>
       <c r="G6" t="n">
-        <v>1.896490594235131e-05</v>
+        <v>-7.274813061522982e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1477537518097171</v>
+        <v>0.3017479622805516</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-0.03482268  0.03701066 -0.00377378]</t>
+          <t>[-0.03243148  0.03681806 -0.00111662]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0.0494311  0.16501221 0.04984405]</t>
+          <t>[0.13944298 0.43204202 0.16173016]</t>
         </is>
       </c>
     </row>
@@ -637,19 +637,19 @@
         <v>8.905710853410421</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03695016751205463</v>
+        <v>-0.03682644868783085</v>
       </c>
       <c r="H7" t="n">
-        <v>1.058860228878581</v>
+        <v>0.994463410371267</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.0750215  -0.01454513 -0.04190992]</t>
+          <t>[-0.06483089 -0.01289033 -0.04024806]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[0.47214234 1.97223745 1.19998158]</t>
+          <t>[0.34916763 1.48792678 0.98476325]</t>
         </is>
       </c>
     </row>
@@ -677,19 +677,19 @@
         <v>4.20083681066561</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02026799545925846</v>
+        <v>-0.02034019213870167</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6535866303005805</v>
+        <v>0.87876394727233</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[-0.040775   -0.00388215 -0.02339326]</t>
+          <t>[-0.04526311  0.00068003 -0.02171873]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[0.30960221 1.08045675 0.67021857]</t>
+          <t>[0.30420463 1.20761988 0.84341036]</t>
         </is>
       </c>
     </row>
@@ -717,19 +717,19 @@
         <v>18.1490341883149</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01526336323117483</v>
+        <v>0.01503959269964151</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6104346475921597</v>
+        <v>0.8512862855539182</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-0.0076017   0.03958159  0.0177854 ]</t>
+          <t>[-0.0173665   0.0364721   0.01605454]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[0.28924728 1.25553533 0.61748809]</t>
+          <t>[0.60095123 1.12530921 0.91069602]</t>
         </is>
       </c>
     </row>
@@ -757,19 +757,19 @@
         <v>16.4201497510561</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007819165631008132</v>
+        <v>0.007651281940650334</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5060858780194127</v>
+        <v>0.8988150677015526</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.0113992   0.02923483  0.00986942]</t>
+          <t>[-0.01316886  0.02694227  0.00845062]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[0.20969558 0.8707261  0.48063534]</t>
+          <t>[0.66574618 1.30721555 0.93531625]</t>
         </is>
       </c>
     </row>
@@ -797,19 +797,19 @@
         <v>10.475665966914</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.005433943359244152</v>
+        <v>-0.005553999495561447</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3316279065220029</v>
+        <v>0.6383838491912189</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[-0.02435493  0.02142774 -0.00219832]</t>
+          <t>[-0.03085837  0.0277973  -0.0035085 ]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[0.15050188 0.49993182 0.22295282]</t>
+          <t>[0.15932025 0.96451854 0.6115404 ]</t>
         </is>
       </c>
     </row>
@@ -837,19 +837,19 @@
         <v>4.16327952324079</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03028743642698663</v>
+        <v>0.03004676449216516</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9287461677619477</v>
+        <v>0.8638715274054647</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.00907548 0.05862762 0.0309523 ]</t>
+          <t>[-0.00060535  0.06820761  0.0292542 ]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[0.42474214 1.53818818 0.93379878]</t>
+          <t>[0.4095162  1.66912564 0.92273467]</t>
         </is>
       </c>
     </row>
@@ -877,19 +877,19 @@
         <v>9.49971351958197</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0009809223426041746</v>
+        <v>-0.001158300571735112</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4130692250072716</v>
+        <v>0.8393767918337006</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[-0.01732647  0.01674103 -0.0006728 ]</t>
+          <t>[-0.02480234  0.01566456 -0.00211397]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0.20897495 0.54552078 0.31740249]</t>
+          <t>[0.25231829 1.0302435  0.81087421]</t>
         </is>
       </c>
     </row>
@@ -917,19 +917,19 @@
         <v>7.35629680015826</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001232286104454985</v>
+        <v>0.001099640488445456</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2708638805202409</v>
+        <v>0.5428450952449194</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[-0.02161156  0.02757666  0.00161302]</t>
+          <t>[-0.02337856  0.03039546  0.00090304]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[0.09497385 0.3519473  0.14693107]</t>
+          <t>[0.1411777  0.77965049 0.44391914]</t>
         </is>
       </c>
     </row>
@@ -957,19 +957,19 @@
         <v>10.5270026105767</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01092551847234981</v>
+        <v>-0.01104163385794092</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4479967993143504</v>
+        <v>0.7608254604172094</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[-0.03052016  0.01157735 -0.01200139]</t>
+          <t>[-0.03064313  0.0040798  -0.01401255]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.07712412 0.72435738 0.40776854]</t>
+          <t>[0.18615564 1.01119646 0.68530805]</t>
         </is>
       </c>
     </row>
@@ -997,19 +997,19 @@
         <v>6.2683318247799</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.06800439577645248</v>
+        <v>-0.06778090356678605</v>
       </c>
       <c r="H16" t="n">
-        <v>1.921727867377717</v>
+        <v>1.561029175737962</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[-0.0985701  -0.05084231 -0.07690458]</t>
+          <t>[-0.09227292 -0.04926879 -0.07356124]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[1.49254469 2.77441011 2.21146383]</t>
+          <t>[1.0743366  2.12452792 1.56291081]</t>
         </is>
       </c>
     </row>
@@ -1037,19 +1037,19 @@
         <v>3.23499494857128</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.03891128490016038</v>
+        <v>-0.03894365746181708</v>
       </c>
       <c r="H17" t="n">
-        <v>1.147746004640422</v>
+        <v>1.240880025668562</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[-0.05599761 -0.03000081 -0.0422111 ]</t>
+          <t>[-0.05408332 -0.02922713 -0.04180364]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[0.94171408 1.5240726  1.3083748 ]</t>
+          <t>[0.93523842 1.51192901 1.25466492]</t>
         </is>
       </c>
     </row>
@@ -1077,19 +1077,19 @@
         <v>18.8260788445098</v>
       </c>
       <c r="G18" t="n">
-        <v>5.028747118369578e-06</v>
+        <v>-0.0001238418106627427</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2279244888188438</v>
+        <v>0.4623687524578112</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[-0.03950298  0.01720737 -0.0112931 ]</t>
+          <t>[-0.032307    0.02403384 -0.00582894]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[0.15146596 0.31484622 0.15325784]</t>
+          <t>[0.11689239 0.76062633 0.39328554]</t>
         </is>
       </c>
     </row>
@@ -1117,19 +1117,19 @@
         <v>14.3585518548811</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02027463677926823</v>
+        <v>-0.02093451966558317</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6061661707620559</v>
+        <v>0.7075377623325406</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[-0.03853427  0.00906903 -0.01999994]</t>
+          <t>[-0.04388802  0.00520169 -0.02113886]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[0.22718917 1.13453725 0.56740754]</t>
+          <t>[0.20308182 0.99120612 0.5653858 ]</t>
         </is>
       </c>
     </row>
@@ -1157,19 +1157,19 @@
         <v>10.6115825535449</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002246726547843648</v>
+        <v>-0.002435488845118319</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4633227872108271</v>
+        <v>0.9422850340902573</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[-0.01828435  0.01280071 -0.00261682]</t>
+          <t>[-0.01414308  0.01254783 -0.00127401]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[0.27425803 0.57572393 0.39185487]</t>
+          <t>[0.31748546 1.11655785 0.94645809]</t>
         </is>
       </c>
     </row>
@@ -1197,19 +1197,19 @@
         <v>2.43157137126769</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001460712866836552</v>
+        <v>0.001329332453818879</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3413719355531064</v>
+        <v>0.6760701497818596</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[-0.02932053  0.02427185  0.0030049 ]</t>
+          <t>[-0.02726411  0.02312266 -0.00080769]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[0.21447639 0.62170471 0.27782671]</t>
+          <t>[0.28435066 0.95369767 0.68138138]</t>
         </is>
       </c>
     </row>
@@ -1237,19 +1237,19 @@
         <v>16.1921649824113</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.007024435426942541</v>
+        <v>-0.007012279701026585</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3532979634536919</v>
+        <v>0.6405417350102758</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[-0.03944714  0.01665588 -0.00703274]</t>
+          <t>[-0.04745379  0.01557624 -0.01147446]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[0.1172775  0.58646049 0.26608321]</t>
+          <t>[0.14987188 1.09931744 0.64019562]</t>
         </is>
       </c>
     </row>
@@ -1277,19 +1277,19 @@
         <v>8.71508486022139</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.02573125910871042</v>
+        <v>-0.02581198236829676</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8064690964352549</v>
+        <v>1.028954750889946</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[-0.05218639 -0.01406676 -0.02889882]</t>
+          <t>[-0.04309412 -0.01069503 -0.02874839]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[0.53622872 1.39973386 0.85990655]</t>
+          <t>[0.63657627 1.3402937  1.01515925]</t>
         </is>
       </c>
     </row>
@@ -1317,19 +1317,19 @@
         <v>6.07329505645181</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01609705531494578</v>
+        <v>0.01583775981572057</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6635415698031905</v>
+        <v>0.9496361875268742</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[0.00081715 0.03595539 0.0169977 ]</t>
+          <t>[-0.00521777  0.03244703  0.01644684]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[0.39256328 1.12191986 0.69679744]</t>
+          <t>[0.78499104 1.17164154 0.99810613]</t>
         </is>
       </c>
     </row>
@@ -1357,19 +1357,19 @@
         <v>13.2804518023977</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0268342507040861</v>
+        <v>-0.02635700762953394</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8375807578728385</v>
+        <v>1.037212742269386</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[-0.05222867 -0.01249592 -0.0300541 ]</t>
+          <t>[-0.04401362 -0.0095573  -0.02693511]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.49140384 1.39729279 0.89279408]</t>
+          <t>[0.5734748  1.34360122 1.0514857 ]</t>
         </is>
       </c>
     </row>
@@ -1397,19 +1397,19 @@
         <v>14.8833988150265</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007278469561244341</v>
+        <v>0.007116283810397735</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3544015026969021</v>
+        <v>0.5641595039208387</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[-0.02166374  0.02901812  0.00638953]</t>
+          <t>[-0.02221646  0.03148251  0.00696763]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[0.14055317 0.59641036 0.26075192]</t>
+          <t>[0.15436259 0.86216013 0.53843249]</t>
         </is>
       </c>
     </row>
@@ -1437,19 +1437,19 @@
         <v>5.65626339296861</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01886624468490083</v>
+        <v>-0.01893555716280033</v>
       </c>
       <c r="H27" t="n">
-        <v>0.610139951138609</v>
+        <v>0.8243437480170173</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[-0.04382451 -0.00236743 -0.02043107]</t>
+          <t>[-0.03720388 -0.00597412 -0.02295449]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.32028999 1.09186064 0.6258879 ]</t>
+          <t>[0.27409491 1.0708722  0.79143778]</t>
         </is>
       </c>
     </row>
@@ -1477,19 +1477,19 @@
         <v>4.06985188179461</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07312363521391191</v>
+        <v>0.07261410299616362</v>
       </c>
       <c r="H28" t="n">
-        <v>2.14780702765486</v>
+        <v>1.776791481867315</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.05959975 0.10284961 0.08183214]</t>
+          <t>[0.06300869 0.09123229 0.07855951]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[1.92722661 2.5420156  2.31865687]</t>
+          <t>[1.38348795 2.43726931 1.96248937]</t>
         </is>
       </c>
     </row>
@@ -1517,19 +1517,19 @@
         <v>10.5427542371552</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01822128484210945</v>
+        <v>-0.01831937756359403</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6226335590832881</v>
+        <v>0.9095207344978942</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[-0.04597393  0.01150489 -0.01921932]</t>
+          <t>[-0.04541099 -0.00144081 -0.02248465]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[0.25836156 1.05993471 0.58675662]</t>
+          <t>[0.4014322  1.1764377  0.89165324]</t>
         </is>
       </c>
     </row>
@@ -1557,19 +1557,19 @@
         <v>15.7041429053511</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03333111005884963</v>
+        <v>0.03318666601966175</v>
       </c>
       <c r="H30" t="n">
-        <v>1.054384871675127</v>
+        <v>1.062839515158135</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.01633652 0.06826805 0.0362186 ]</t>
+          <t>[0.01962596 0.06202668 0.03990199]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[0.60973781 1.57225773 1.17129878]</t>
+          <t>[0.88434083 1.56843342 1.21330565]</t>
         </is>
       </c>
     </row>
@@ -1597,19 +1597,19 @@
         <v>17.2939233224719</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.005429259819176659</v>
+        <v>-0.005562540029332526</v>
       </c>
       <c r="H31" t="n">
-        <v>0.342021404712</v>
+        <v>0.6621377612974093</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[-0.02257641  0.02462437 -0.00516105]</t>
+          <t>[-0.02566422  0.01726066 -0.00666521]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.18825575 0.4355179  0.23937991]</t>
+          <t>[0.04695619 0.86416099 0.57589072]</t>
         </is>
       </c>
     </row>
@@ -1637,19 +1637,19 @@
         <v>6.64822149110939</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.02125263273857022</v>
+        <v>-0.02154136694381201</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6764407791677088</v>
+        <v>0.8979542497971325</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[-0.04118647 -0.0030509  -0.02301213]</t>
+          <t>[-0.04685217  0.0012865  -0.02037311]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[0.35424143 1.23120212 0.68058383]</t>
+          <t>[0.44921942 1.35401361 0.87170196]</t>
         </is>
       </c>
     </row>
@@ -1677,19 +1677,19 @@
         <v>9.364352421008711</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00939653908371476</v>
+        <v>0.009189756331008461</v>
       </c>
       <c r="H33" t="n">
-        <v>0.528812666734769</v>
+        <v>0.8961303481557373</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[-0.00726728  0.02500549  0.0101036 ]</t>
+          <t>[-0.01037814  0.02159928  0.01085678]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[0.29227227 0.98948124 0.54174234]</t>
+          <t>[0.54676143 1.06104948 0.92843674]</t>
         </is>
       </c>
     </row>
@@ -1717,19 +1717,19 @@
         <v>8.15506388476593</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01389320440184611</v>
+        <v>-0.01410602702801305</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4055984928947608</v>
+        <v>0.427101202988591</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[-0.04652803  0.01387657 -0.01939632]</t>
+          <t>[-0.04892722  0.01533036 -0.0145518 ]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[0.07723313 1.24429858 0.39483953]</t>
+          <t>[0.05213661 1.00091838 0.30889974]</t>
         </is>
       </c>
     </row>
@@ -1757,19 +1757,19 @@
         <v>15.9320417767385</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01415834636501957</v>
+        <v>-0.01425183391831008</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5066907764678222</v>
+        <v>0.7780721045022555</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[-0.03020817  0.01786809 -0.01098895]</t>
+          <t>[-0.03098003  0.00856251 -0.01040153]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[0.1026823  0.8339186  0.43918603]</t>
+          <t>[0.24471997 1.05096136 0.7345552 ]</t>
         </is>
       </c>
     </row>
@@ -1797,19 +1797,19 @@
         <v>11.9378472875586</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.009166291113345016</v>
+        <v>-0.009252363772252165</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3639573014906008</v>
+        <v>0.6061910602669887</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[-0.03304843  0.01392962 -0.00877155]</t>
+          <t>[-0.02650339  0.02131158 -0.00994027]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[0.13556054 0.73989674 0.31106479]</t>
+          <t>[0.10393259 0.88862838 0.54265432]</t>
         </is>
       </c>
     </row>
@@ -1837,19 +1837,19 @@
         <v>18.6256353495308</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04514170177440986</v>
+        <v>0.04564840825440113</v>
       </c>
       <c r="H37" t="n">
-        <v>1.307614975678271</v>
+        <v>1.061159304150219</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[0.01710541 0.08328042 0.04758108]</t>
+          <t>[0.01827777 0.07469495 0.04556457]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[0.54454653 2.36236255 1.43803432]</t>
+          <t>[0.53510489 1.70713004 1.07937858]</t>
         </is>
       </c>
     </row>
@@ -1877,19 +1877,19 @@
         <v>2.97573692676797</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01373234257961751</v>
+        <v>0.01360958500912076</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5395173240076795</v>
+        <v>0.7445141330943736</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[-0.01405964  0.04009497  0.01771678]</t>
+          <t>[-0.02280031  0.03186931  0.01363996]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[0.27927442 1.24614443 0.61292036]</t>
+          <t>[0.43525742 1.11228323 0.80842919]</t>
         </is>
       </c>
     </row>
@@ -1917,19 +1917,19 @@
         <v>13.0219623560134</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.008380850687161608</v>
+        <v>-0.008498976359430225</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4160462127327316</v>
+        <v>0.7643622935516283</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[-0.04585119  0.00790993 -0.01222151]</t>
+          <t>[-0.03202122  0.01431945 -0.00884051]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[0.05816825 0.6293025  0.37278701]</t>
+          <t>[0.20431641 1.02300883 0.73691194]</t>
         </is>
       </c>
     </row>
@@ -1957,19 +1957,19 @@
         <v>12.5968651960161</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05425255046682349</v>
+        <v>0.05407725500437931</v>
       </c>
       <c r="H40" t="n">
-        <v>1.612567924025692</v>
+        <v>1.384611958260253</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[0.03502828 0.0754962  0.0583496 ]</t>
+          <t>[0.03809111 0.07812455 0.05880681]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[1.10794313 2.18677248 1.73020053]</t>
+          <t>[0.94284686 1.98211167 1.4598498 ]</t>
         </is>
       </c>
     </row>
@@ -1997,19 +1997,19 @@
         <v>13.9818037974324</v>
       </c>
       <c r="G41" t="n">
-        <v>0.002474536379052671</v>
+        <v>0.00228914066548453</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4104177240958793</v>
+        <v>0.8048348260598096</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[-0.01686783  0.02627858  0.00427308]</t>
+          <t>[-0.01706281  0.02629407  0.00150165]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[0.15394247 0.60435896 0.35977621]</t>
+          <t>[0.10819429 0.95621533 0.7494659 ]</t>
         </is>
       </c>
     </row>
@@ -2037,19 +2037,19 @@
         <v>12.0011423977921</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01750543986113235</v>
+        <v>0.01755068845772656</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6259462858916696</v>
+        <v>0.7856291323917954</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[-0.01487864  0.03952969  0.01457719]</t>
+          <t>[-0.01866031  0.04480659  0.0167501 ]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[0.24268093 1.17831963 0.57781645]</t>
+          <t>[0.5482142  1.49205504 0.82455795]</t>
         </is>
       </c>
     </row>
@@ -2077,19 +2077,19 @@
         <v>19.1464856672245</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.01196538887417966</v>
+        <v>-0.01208751416095253</v>
       </c>
       <c r="H43" t="n">
-        <v>0.474304128603389</v>
+        <v>0.7897452976267375</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[-0.03699112  0.00948699 -0.01345624]</t>
+          <t>[-0.03072313  0.0112264  -0.01099926]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[0.18499118 0.70410784 0.39538313]</t>
+          <t>[0.1235766  1.05637712 0.7356817 ]</t>
         </is>
       </c>
     </row>
@@ -2117,19 +2117,19 @@
         <v>3.81350478775125</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03081263608823134</v>
+        <v>0.03074131844407361</v>
       </c>
       <c r="H44" t="n">
-        <v>0.956293870272391</v>
+        <v>0.924364511171382</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[0.0023289  0.05502554 0.02821502]</t>
+          <t>[0.0096145  0.06170344 0.03287752]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[0.33208954 1.52504349 0.93483132]</t>
+          <t>[0.67522098 1.574784   0.99567445]</t>
         </is>
       </c>
     </row>
@@ -2157,19 +2157,19 @@
         <v>4.34862912988896</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.009454599320558246</v>
+        <v>-0.0095829833446216</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4037354885350924</v>
+        <v>0.7013531075792658</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[-0.02892558  0.02063239 -0.00970584]</t>
+          <t>[-0.03657461  0.0161253  -0.01130254]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[0.19739828 0.62697489 0.35135861]</t>
+          <t>[0.16811193 0.89723327 0.59408551]</t>
         </is>
       </c>
     </row>
@@ -2197,19 +2197,19 @@
         <v>5.35937655592283</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03896537514432588</v>
+        <v>0.03949318432302695</v>
       </c>
       <c r="H46" t="n">
-        <v>1.144527078821072</v>
+        <v>0.9676222083418564</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[0.00278278 0.05815619 0.03627423]</t>
+          <t>[0.00948918 0.07484699 0.04113276]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[0.3039207  1.80861567 1.12915618]</t>
+          <t>[0.45967584 1.65990873 1.05302175]</t>
         </is>
       </c>
     </row>
@@ -2237,19 +2237,19 @@
         <v>15.5364012150061</v>
       </c>
       <c r="G47" t="n">
-        <v>0.07204388600478714</v>
+        <v>0.07201059168862081</v>
       </c>
       <c r="H47" t="n">
-        <v>2.08693930769535</v>
+        <v>1.673659934668616</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[0.05055778 0.12820704 0.07787481]</t>
+          <t>[0.05029257 0.09572023 0.07747434]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[1.56476222 3.0298314  2.29311423]</t>
+          <t>[1.2281155  2.62097983 1.83200557]</t>
         </is>
       </c>
     </row>
@@ -2277,19 +2277,19 @@
         <v>5.00522096920462</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01476360743385351</v>
+        <v>0.014796028715646</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5169474254716266</v>
+        <v>0.6311057910018384</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[-0.00852684  0.05038033  0.01848966]</t>
+          <t>[-0.01552852  0.04139175  0.01690266]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[0.23871177 1.42667161 0.58539969]</t>
+          <t>[0.31706323 1.03040434 0.63470833]</t>
         </is>
       </c>
     </row>
@@ -2317,19 +2317,19 @@
         <v>4.73533373690427</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09782010415459376</v>
+        <v>0.09768678282657976</v>
       </c>
       <c r="H49" t="n">
-        <v>2.810068452623526</v>
+        <v>2.208260224048085</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[0.07790935 0.12907314 0.10375672]</t>
+          <t>[0.0764047 0.1273574 0.1009677]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[2.45588612 3.21606157 3.00682719]</t>
+          <t>[1.72258367 3.05747427 2.3786555 ]</t>
         </is>
       </c>
     </row>
@@ -2357,19 +2357,19 @@
         <v>7.15116605857213</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05036115458097098</v>
+        <v>0.05017964509315873</v>
       </c>
       <c r="H50" t="n">
-        <v>1.490470285897207</v>
+        <v>1.264326571632907</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[0.02587872 0.07386502 0.05427113]</t>
+          <t>[0.03514668 0.07799234 0.0572972 ]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[0.8496721  2.09395442 1.64255319]</t>
+          <t>[0.86453329 2.00088843 1.41019069]</t>
         </is>
       </c>
     </row>
@@ -2397,19 +2397,19 @@
         <v>6.63548612638398</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03158156077442099</v>
+        <v>0.03135852324873557</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9302013067449371</v>
+        <v>0.7755165166360889</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[0.00943703 0.07285397 0.03532334]</t>
+          <t>[0.01311895 0.06256328 0.03475882]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[0.33631862 2.10578606 1.08006656]</t>
+          <t>[0.4179718  1.36136023 0.88943853]</t>
         </is>
       </c>
     </row>
@@ -2437,19 +2437,19 @@
         <v>16.5619208190305</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02644306716671703</v>
+        <v>0.02633193022150899</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8686805635406238</v>
+        <v>0.9460031504013484</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[-0.000355    0.04962699  0.02843685]</t>
+          <t>[-0.00156479  0.05093968  0.02764336]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[0.39690022 1.53401517 0.98959227]</t>
+          <t>[0.67767739 1.44550501 1.07745023]</t>
         </is>
       </c>
     </row>
@@ -2477,19 +2477,19 @@
         <v>8.351801436124299</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.01109925601362424</v>
+        <v>-0.0112454534917653</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5158233351384673</v>
+        <v>0.9268366712771183</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[-0.02982088  0.00418521 -0.01313681]</t>
+          <t>[-0.02556612  0.00970221 -0.0108783 ]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[0.21172874 0.76133807 0.49574117]</t>
+          <t>[0.37285154 1.16070099 0.93468878]</t>
         </is>
       </c>
     </row>
